--- a/UT.Vend.BLL/HelperFiles/tblVendorProjContact.xlsx
+++ b/UT.Vend.BLL/HelperFiles/tblVendorProjContact.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilson\Documents\Wilson\Documents\CISC475\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilson\Documents\Wilson\Documents\CISC475\CloneGitHub\VolTeerNET\UT.Vend.BLL\HelperFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Volteer.Vend.tblVendorProjContact</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>VendorID</t>
   </si>
@@ -41,33 +38,6 @@
     <t>PrimaryContact</t>
   </si>
   <si>
-    <t>79B0025F-4668-42E3-8802-0807A6D9FEF7</t>
-  </si>
-  <si>
-    <t>3042E5DA-37AF-4984-803D-1962AFDA0067</t>
-  </si>
-  <si>
-    <t>8F939B8E-3E06-4E56-8CF2-33993FA49058</t>
-  </si>
-  <si>
-    <t>9783F095-952B-4B03-8762-3F7B0479F726</t>
-  </si>
-  <si>
-    <t>61A07F9F-5B08-4ADB-A41C-458843F3DBD8</t>
-  </si>
-  <si>
-    <t>F795D2A9-245F-4F69-BE44-5C6B6F79B0C3</t>
-  </si>
-  <si>
-    <t>8DBB39FD-3E8C-4591-A129-C97C76C3A279</t>
-  </si>
-  <si>
-    <t>67929251-9AFB-42B3-8CF0-D6BFAC1E0551</t>
-  </si>
-  <si>
-    <t>C0B98B1C-B8A5-4104-B9F2-F9372BD00EA2</t>
-  </si>
-  <si>
     <t>FFE96E44-6447-4AB6-8EFA-0F8604D479E6</t>
   </si>
   <si>
@@ -96,6 +66,45 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>1222663B-C1D4-4593-A288-AADC1AF70E70</t>
+  </si>
+  <si>
+    <t>6fceed59-06be-45ee-b5e6-9ee7e34ee315</t>
+  </si>
+  <si>
+    <t>861b80c6-e493-4d37-bd2a-92abc6ca4917</t>
+  </si>
+  <si>
+    <t>d4105a95-db48-4fc0-93fa-0b4099a10713</t>
+  </si>
+  <si>
+    <t>e14e476b-54a4-4edd-b922-ba243528f45e</t>
+  </si>
+  <si>
+    <t>2091e065-145a-4d94-b471-3eee9b54edbc</t>
+  </si>
+  <si>
+    <t>48f095ef-981f-4e8f-85b5-cf8d4180192a</t>
+  </si>
+  <si>
+    <t>e841c34d-7e18-4911-ab0d-6697d3268ad7</t>
+  </si>
+  <si>
+    <t>3e8b9057-a663-4214-b1b9-1ea921409a5b</t>
+  </si>
+  <si>
+    <t>0119527d-b194-445e-a676-8fd3b078d97e</t>
+  </si>
+  <si>
+    <t>055ab305-8df4-47dc-a3db-60f0cb661bcb</t>
+  </si>
+  <si>
+    <t>VoltTeer.Vend.tblVendorProjContact</t>
   </si>
 </sst>
 </file>
@@ -137,9 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,202 +432,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="176.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="176.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>"INSERT INTO " &amp; $A$2 &amp; " (" &amp; $B$1 &amp; ", "&amp; $C$1 &amp; ", "&amp; $D$1 &amp;", "&amp; $E$1 &amp; ") VALUES('"&amp; B2 &amp;"', '"&amp; C2 &amp;"', '"&amp; D2 &amp;"', '"&amp; E2 &amp;"')"</f>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('6fceed59-06be-45ee-b5e6-9ee7e34ee315', '1', 'FFE96E44-6447-4AB6-8EFA-0F8604D479E6', '1')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F11" si="0">"INSERT INTO " &amp; $A$2 &amp; " (" &amp; $B$1 &amp; ", "&amp; $C$1 &amp; ", "&amp; $D$1 &amp;", "&amp; $E$1 &amp; ") VALUES('"&amp; B3 &amp;"', '"&amp; C3 &amp;"', '"&amp; D3 &amp;"', '"&amp; E3 &amp;"')"</f>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('861b80c6-e493-4d37-bd2a-92abc6ca4917', '2', '85C79F05-FF2D-46CB-8481-0FE71FD4B348', '2')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('d4105a95-db48-4fc0-93fa-0b4099a10713', '3', 'BBCF5EBB-7932-4BB0-AFAB-1445C0AEDB91', '3')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('e14e476b-54a4-4edd-b922-ba243528f45e', '4', '055127D5-14B1-4843-B0F9-23E451FEDC11', '4')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('2091e065-145a-4d94-b471-3eee9b54edbc', '5', '5C05FE31-BF50-41BB-B5B3-3B67710DEC1A', '5')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('48f095ef-981f-4e8f-85b5-cf8d4180192a', '6', '0FC01234-B8AA-4705-8FF9-4596D4AF8CFC', '6')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('e841c34d-7e18-4911-ab0d-6697d3268ad7', '7', '5A41B01E-7F59-4DD2-A6C4-4CAD882BC0AB', '7')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f>"INSERT INTO " &amp; $A$1 &amp; " (" &amp; $A$2 &amp; ", "&amp; $B$2 &amp; ", "&amp; $C$2 &amp;", "&amp; $D$2 &amp; ") VALUES("&amp; A3 &amp;", "&amp; B3 &amp;", "&amp; C3 &amp;", "&amp; D3 &amp;")"</f>
-        <v>INSERT INTO Volteer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES(79B0025F-4668-42E3-8802-0807A6D9FEF7, 1, FFE96E44-6447-4AB6-8EFA-0F8604D479E6, 1)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('3e8b9057-a663-4214-b1b9-1ea921409a5b', '8', 'B6702B43-223D-48B3-88FF-6E463A521261', '8')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('0119527d-b194-445e-a676-8fd3b078d97e', '9', 'E4922B15-BA01-49C5-A541-A73A2EC461D9', '9')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4:E11" si="0">"INSERT INTO " &amp; $A$1 &amp; " (" &amp; $A$2 &amp; ", "&amp; $B$2 &amp; ", "&amp; $C$2 &amp;", "&amp; $D$2 &amp; ") VALUES("&amp; A4 &amp;", "&amp; B4 &amp;", "&amp; C4 &amp;", "&amp; D4 &amp;")"</f>
-        <v>INSERT INTO Volteer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES(3042E5DA-37AF-4984-803D-1962AFDA0067, 2, 85C79F05-FF2D-46CB-8481-0FE71FD4B348, 2)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Volteer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES(8F939B8E-3E06-4E56-8CF2-33993FA49058, 3, BBCF5EBB-7932-4BB0-AFAB-1445C0AEDB91, 3)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Volteer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES(9783F095-952B-4B03-8762-3F7B0479F726, 4, 055127D5-14B1-4843-B0F9-23E451FEDC11, 4)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Volteer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES(61A07F9F-5B08-4ADB-A41C-458843F3DBD8, 5, 5C05FE31-BF50-41BB-B5B3-3B67710DEC1A, 5)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Volteer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES(F795D2A9-245F-4F69-BE44-5C6B6F79B0C3, 6, 0FC01234-B8AA-4705-8FF9-4596D4AF8CFC, 6)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Volteer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES(8DBB39FD-3E8C-4591-A129-C97C76C3A279, 7, 5A41B01E-7F59-4DD2-A6C4-4CAD882BC0AB, 7)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Volteer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES(67929251-9AFB-42B3-8CF0-D6BFAC1E0551, 8, B6702B43-223D-48B3-88FF-6E463A521261, 8)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Volteer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES(C0B98B1C-B8A5-4104-B9F2-F9372BD00EA2, 9, E4922B15-BA01-49C5-A541-A73A2EC461D9, 9)</v>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('055ab305-8df4-47dc-a3db-60f0cb661bcb', '10', '1222663B-C1D4-4593-A288-AADC1AF70E70', '10')</v>
       </c>
     </row>
   </sheetData>

--- a/UT.Vend.BLL/HelperFiles/tblVendorProjContact.xlsx
+++ b/UT.Vend.BLL/HelperFiles/tblVendorProjContact.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>VendorID</t>
   </si>
@@ -105,6 +105,36 @@
   </si>
   <si>
     <t>VoltTeer.Vend.tblVendorProjContact</t>
+  </si>
+  <si>
+    <t>f79359bb-2524-4cd5-b452-acaa8fd0d33b</t>
+  </si>
+  <si>
+    <t>5cc9ad09-3002-40e8-8a30-96b656a9d805</t>
+  </si>
+  <si>
+    <t>54dbcf7a-0328-4a8d-9562-7d8c8b0c930b</t>
+  </si>
+  <si>
+    <t>364ac77c-d08e-4134-9849-fe731b00af2d</t>
+  </si>
+  <si>
+    <t>25c7f719-8bde-447c-9b53-226c612de0bb</t>
+  </si>
+  <si>
+    <t>fb986b83-d3c1-4dc6-bb25-4ddc3423fd5e</t>
+  </si>
+  <si>
+    <t>dffeab07-7872-4d13-aa6b-5480afb9b2d8</t>
+  </si>
+  <si>
+    <t>ec68bfed-f064-422b-94c6-ab817f5e0dd8</t>
+  </si>
+  <si>
+    <t>a8b08005-3d10-4b7a-b4b9-6df523c8ae07</t>
+  </si>
+  <si>
+    <t>137255ed-78f0-4f31-abbb-6759486938f0</t>
   </si>
 </sst>
 </file>
@@ -434,14 +464,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="176.5703125" bestFit="1" customWidth="1"/>
@@ -474,8 +505,8 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -485,7 +516,7 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>"INSERT INTO " &amp; $A$2 &amp; " (" &amp; $B$1 &amp; ", "&amp; $C$1 &amp; ", "&amp; $D$1 &amp;", "&amp; $E$1 &amp; ") VALUES('"&amp; B2 &amp;"', '"&amp; C2 &amp;"', '"&amp; D2 &amp;"', '"&amp; E2 &amp;"')"</f>
-        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('6fceed59-06be-45ee-b5e6-9ee7e34ee315', '1', 'FFE96E44-6447-4AB6-8EFA-0F8604D479E6', '1')</v>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('6fceed59-06be-45ee-b5e6-9ee7e34ee315', 'f79359bb-2524-4cd5-b452-acaa8fd0d33b', 'FFE96E44-6447-4AB6-8EFA-0F8604D479E6', '1')</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -495,8 +526,8 @@
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
@@ -506,7 +537,7 @@
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F11" si="0">"INSERT INTO " &amp; $A$2 &amp; " (" &amp; $B$1 &amp; ", "&amp; $C$1 &amp; ", "&amp; $D$1 &amp;", "&amp; $E$1 &amp; ") VALUES('"&amp; B3 &amp;"', '"&amp; C3 &amp;"', '"&amp; D3 &amp;"', '"&amp; E3 &amp;"')"</f>
-        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('861b80c6-e493-4d37-bd2a-92abc6ca4917', '2', '85C79F05-FF2D-46CB-8481-0FE71FD4B348', '2')</v>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('861b80c6-e493-4d37-bd2a-92abc6ca4917', '5cc9ad09-3002-40e8-8a30-96b656a9d805', '85C79F05-FF2D-46CB-8481-0FE71FD4B348', '2')</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -516,8 +547,8 @@
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -527,7 +558,7 @@
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('d4105a95-db48-4fc0-93fa-0b4099a10713', '3', 'BBCF5EBB-7932-4BB0-AFAB-1445C0AEDB91', '3')</v>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('d4105a95-db48-4fc0-93fa-0b4099a10713', '54dbcf7a-0328-4a8d-9562-7d8c8b0c930b', 'BBCF5EBB-7932-4BB0-AFAB-1445C0AEDB91', '3')</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -537,8 +568,8 @@
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -548,7 +579,7 @@
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('e14e476b-54a4-4edd-b922-ba243528f45e', '4', '055127D5-14B1-4843-B0F9-23E451FEDC11', '4')</v>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('e14e476b-54a4-4edd-b922-ba243528f45e', '364ac77c-d08e-4134-9849-fe731b00af2d', '055127D5-14B1-4843-B0F9-23E451FEDC11', '4')</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -558,8 +589,8 @@
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>5</v>
+      <c r="C6" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -569,7 +600,7 @@
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('2091e065-145a-4d94-b471-3eee9b54edbc', '5', '5C05FE31-BF50-41BB-B5B3-3B67710DEC1A', '5')</v>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('2091e065-145a-4d94-b471-3eee9b54edbc', '25c7f719-8bde-447c-9b53-226c612de0bb', '5C05FE31-BF50-41BB-B5B3-3B67710DEC1A', '5')</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -579,8 +610,8 @@
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>6</v>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -590,7 +621,7 @@
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('48f095ef-981f-4e8f-85b5-cf8d4180192a', '6', '0FC01234-B8AA-4705-8FF9-4596D4AF8CFC', '6')</v>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('48f095ef-981f-4e8f-85b5-cf8d4180192a', 'fb986b83-d3c1-4dc6-bb25-4ddc3423fd5e', '0FC01234-B8AA-4705-8FF9-4596D4AF8CFC', '6')</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -600,8 +631,8 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
-        <v>7</v>
+      <c r="C8" t="s">
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -611,7 +642,7 @@
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('e841c34d-7e18-4911-ab0d-6697d3268ad7', '7', '5A41B01E-7F59-4DD2-A6C4-4CAD882BC0AB', '7')</v>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('e841c34d-7e18-4911-ab0d-6697d3268ad7', 'dffeab07-7872-4d13-aa6b-5480afb9b2d8', '5A41B01E-7F59-4DD2-A6C4-4CAD882BC0AB', '7')</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -621,8 +652,8 @@
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
-        <v>8</v>
+      <c r="C9" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -632,7 +663,7 @@
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('3e8b9057-a663-4214-b1b9-1ea921409a5b', '8', 'B6702B43-223D-48B3-88FF-6E463A521261', '8')</v>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('3e8b9057-a663-4214-b1b9-1ea921409a5b', 'ec68bfed-f064-422b-94c6-ab817f5e0dd8', 'B6702B43-223D-48B3-88FF-6E463A521261', '8')</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -642,8 +673,8 @@
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
-        <v>9</v>
+      <c r="C10" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -653,7 +684,7 @@
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('0119527d-b194-445e-a676-8fd3b078d97e', '9', 'E4922B15-BA01-49C5-A541-A73A2EC461D9', '9')</v>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('0119527d-b194-445e-a676-8fd3b078d97e', 'a8b08005-3d10-4b7a-b4b9-6df523c8ae07', 'E4922B15-BA01-49C5-A541-A73A2EC461D9', '9')</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -663,8 +694,8 @@
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
-        <v>10</v>
+      <c r="C11" t="s">
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
@@ -674,7 +705,7 @@
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('055ab305-8df4-47dc-a3db-60f0cb661bcb', '10', '1222663B-C1D4-4593-A288-AADC1AF70E70', '10')</v>
+        <v>INSERT INTO VoltTeer.Vend.tblVendorProjContact (VendorID, ProjectID, ContactID, PrimaryContact) VALUES('055ab305-8df4-47dc-a3db-60f0cb661bcb', '137255ed-78f0-4f31-abbb-6759486938f0', '1222663B-C1D4-4593-A288-AADC1AF70E70', '10')</v>
       </c>
     </row>
   </sheetData>
